--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43986,6 +43986,43 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44023,6 +44023,43 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44060,6 +44060,43 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44097,6 +44097,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44134,6 +44134,43 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44171,6 +44171,41 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44206,6 +44206,43 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44243,6 +44243,43 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44280,6 +44280,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44317,6 +44317,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44354,6 +44354,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44391,6 +44391,43 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44428,6 +44428,41 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44463,6 +44463,78 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44535,6 +44535,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44572,6 +44572,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44607,6 +44607,78 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44679,6 +44679,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44714,6 +44714,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2138"/>
+  <dimension ref="A1:I2139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76774,6 +76774,41 @@
         <v>27000</v>
       </c>
     </row>
+    <row r="2139">
+      <c r="A2139" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D2139" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E2139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G2139" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H2139" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I2139" t="n">
+        <v>71000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2139"/>
+  <dimension ref="A1:I2140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76809,6 +76809,43 @@
         <v>71000</v>
       </c>
     </row>
+    <row r="2140">
+      <c r="A2140" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D2140" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E2140" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G2140" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H2140" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I2140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2140"/>
+  <dimension ref="A1:I2141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76846,6 +76846,43 @@
         </is>
       </c>
     </row>
+    <row r="2141">
+      <c r="A2141" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E2141" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G2141" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H2141" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I2141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2141"/>
+  <dimension ref="A1:I2142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76883,6 +76883,43 @@
         </is>
       </c>
     </row>
+    <row r="2142">
+      <c r="A2142" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D2142" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E2142" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F2142" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G2142" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H2142" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I2142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2142"/>
+  <dimension ref="A1:I2143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76920,6 +76920,43 @@
         </is>
       </c>
     </row>
+    <row r="2143">
+      <c r="A2143" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E2143" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G2143" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H2143" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I2143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2143"/>
+  <dimension ref="A1:I2144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76957,6 +76957,43 @@
         </is>
       </c>
     </row>
+    <row r="2144">
+      <c r="A2144" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E2144" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G2144" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H2144" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I2144" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2144"/>
+  <dimension ref="A1:I2145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76994,6 +76994,41 @@
         </is>
       </c>
     </row>
+    <row r="2145">
+      <c r="A2145" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D2145" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E2145" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G2145" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H2145" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I2145" t="n">
+        <v>17200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2145"/>
+  <dimension ref="A1:I2146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77029,6 +77029,41 @@
         <v>17200</v>
       </c>
     </row>
+    <row r="2146">
+      <c r="A2146" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E2146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G2146" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H2146" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I2146" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2146"/>
+  <dimension ref="A1:I2147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77064,6 +77064,41 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="2147">
+      <c r="A2147" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D2147" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E2147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G2147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H2147" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I2147" t="n">
+        <v>7100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2147"/>
+  <dimension ref="A1:I2148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77099,6 +77099,41 @@
         <v>7100</v>
       </c>
     </row>
+    <row r="2148">
+      <c r="A2148" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E2148" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G2148" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H2148" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I2148" t="n">
+        <v>64000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2148"/>
+  <dimension ref="A1:I2149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77134,6 +77134,41 @@
         <v>64000</v>
       </c>
     </row>
+    <row r="2149">
+      <c r="A2149" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D2149" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E2149" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G2149" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H2149" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I2149" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2149"/>
+  <dimension ref="A1:I2150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77169,6 +77169,41 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="2150">
+      <c r="A2150" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D2150" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E2150" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G2150" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H2150" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I2150" t="n">
+        <v>27900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2150"/>
+  <dimension ref="A1:I2151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77204,6 +77204,41 @@
         <v>27900</v>
       </c>
     </row>
+    <row r="2151">
+      <c r="A2151" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D2151" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E2151" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G2151" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H2151" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I2151" t="n">
+        <v>23100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2151"/>
+  <dimension ref="A1:I2152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77239,6 +77239,41 @@
         <v>23100</v>
       </c>
     </row>
+    <row r="2152">
+      <c r="A2152" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D2152" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E2152" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G2152" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H2152" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I2152" t="n">
+        <v>13600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7528.xlsx
+++ b/data/7528.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2152"/>
+  <dimension ref="A1:I2153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77274,6 +77274,41 @@
         <v>13600</v>
       </c>
     </row>
+    <row r="2153">
+      <c r="A2153" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="D2153" t="inlineStr">
+        <is>
+          <t>DKLS</t>
+        </is>
+      </c>
+      <c r="E2153" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G2153" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H2153" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I2153" t="n">
+        <v>18600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
